--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1375649.344836087</v>
+        <v>1337612.72865481</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481811</v>
+        <v>7956703.636481817</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>219.4405486221116</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.293863480540836</v>
+        <v>227.4085456509316</v>
       </c>
       <c r="G2" t="n">
         <v>14.85476540383092</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>165.648879390089</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11.8340001265894</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28.41172902325599</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>219.4740383149756</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>18.21955851848968</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>35.17230897340405</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>17.97969551397049</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.91631976400987</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>265.727494023396</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>128.2699682503134</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.57657371040602</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>50.9200461957161</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>207.0070419487584</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6133508632724</v>
+        <v>79.35700500862784</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.42020947531577</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>110.5035676309304</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
@@ -1621,10 +1621,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>252.4365542161103</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S14" t="n">
-        <v>112.377154793262</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>12.1072131707399</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>83.58419887257689</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -1861,10 +1861,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>175.6322887537066</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>39.79117351474051</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3570519053243</v>
+        <v>43.4354362906818</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I18" t="n">
-        <v>22.34031300679495</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>42.01111635842608</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>150.9763849115753</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>280.3279733989743</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>301.7435848318557</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>43.43543629068141</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>22.95420629811575</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>188.2409070686243</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647294</v>
+        <v>62.77413649815456</v>
       </c>
       <c r="S23" t="n">
-        <v>132.6084563174593</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>12.1072131707399</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>126.1165465901326</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.403524062314244</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>108.4991505213676</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -2572,10 +2572,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>26.93636265451496</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
         <v>217.5149286494106</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S27" t="n">
         <v>156.5880156630749</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>95.15771913645182</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.06659249781265</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2806,10 +2806,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>310.8196571201597</v>
       </c>
       <c r="H29" t="n">
-        <v>161.538519602187</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I30" t="n">
-        <v>22.34031300679495</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>23.73451047899713</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>177.6533237264606</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>161.3494900906276</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>279.3229316957945</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3125,7 +3125,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>75.67504324679705</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5880156630749</v>
+        <v>128.2342301244892</v>
       </c>
       <c r="T33" t="n">
         <v>195.6974464808964</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>150.9113129039355</v>
       </c>
       <c r="V34" t="n">
-        <v>50.42797305210066</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>108.0881465484988</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S35" t="n">
-        <v>127.448701772486</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.11577975570017</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3362,10 +3362,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>104.0288287853823</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.37368085556872</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>41.26628289542501</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -3517,10 +3517,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>187.3050658764652</v>
+        <v>161.3494900906276</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -3593,16 +3593,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>115.1524465449641</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>13.07204123968286</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>83.51342957218358</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>413.6097194764729</v>
@@ -3760,7 +3760,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>163.9721272115905</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>197.977221726425</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U42" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>143.4656465272897</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>83.51342957218341</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>200.1482602685789</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>2.11510266622934</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.64049925911437</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>169.1186764497905</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>543.0265276662028</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="C2" t="n">
-        <v>265.9721768160992</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="D2" t="n">
-        <v>265.9721768160992</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="E2" t="n">
-        <v>44.31505699578452</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="F2" t="n">
-        <v>36.94751812655136</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4342,10 +4342,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="V2" t="n">
-        <v>820.0808785163064</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="W2" t="n">
-        <v>820.0808785163064</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="X2" t="n">
-        <v>820.0808785163064</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.0808785163064</v>
+        <v>474.6163369685898</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>830.8154377838487</v>
+        <v>517.8373438740774</v>
       </c>
       <c r="C3" t="n">
-        <v>663.4933373898193</v>
+        <v>517.8373438740774</v>
       </c>
       <c r="D3" t="n">
-        <v>515.9050307487631</v>
+        <v>370.2490372330213</v>
       </c>
       <c r="E3" t="n">
-        <v>358.2955017516178</v>
+        <v>370.2490372330213</v>
       </c>
       <c r="F3" t="n">
         <v>358.2955017516178</v>
@@ -4418,7 +4418,7 @@
         <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>549.5069725377944</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N3" t="n">
         <v>549.5069725377944</v>
@@ -4433,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>830.8154377838487</v>
+        <v>890.6083307719874</v>
       </c>
       <c r="Y3" t="n">
-        <v>830.8154377838487</v>
+        <v>684.8798949956379</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4518,22 +4518,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C5" t="n">
-        <v>44.98099349534252</v>
+        <v>1068.436513181303</v>
       </c>
       <c r="D5" t="n">
-        <v>44.98099349534252</v>
+        <v>791.3821623311992</v>
       </c>
       <c r="E5" t="n">
-        <v>44.98099349534252</v>
+        <v>791.3821623311992</v>
       </c>
       <c r="F5" t="n">
-        <v>37.61345462610935</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G5" t="n">
-        <v>22.60864108688619</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H5" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X5" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3200212191178</v>
+        <v>187.9346056915052</v>
       </c>
       <c r="C6" t="n">
-        <v>109.3200212191178</v>
+        <v>187.9346056915052</v>
       </c>
       <c r="D6" t="n">
-        <v>109.3200212191178</v>
+        <v>40.34629905044909</v>
       </c>
       <c r="E6" t="n">
-        <v>109.3200212191178</v>
+        <v>40.34629905044909</v>
       </c>
       <c r="F6" t="n">
-        <v>109.3200212191178</v>
+        <v>40.34629905044909</v>
       </c>
       <c r="G6" t="n">
-        <v>109.3200212191178</v>
+        <v>40.34629905044909</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>40.34629905044909</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M6" t="n">
-        <v>432.7256329136656</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N6" t="n">
         <v>630.6851405540922</v>
@@ -4673,25 +4673,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U6" t="n">
-        <v>603.8889963018272</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V6" t="n">
-        <v>603.8889963018272</v>
+        <v>767.2324911838377</v>
       </c>
       <c r="W6" t="n">
-        <v>351.3745046351605</v>
+        <v>767.2324911838377</v>
       </c>
       <c r="X6" t="n">
-        <v>144.847606040738</v>
+        <v>560.7055925894152</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.3200212191178</v>
+        <v>354.9771568130657</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>184.5017259283765</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4764,13 +4764,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.98099349534252</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="C8" t="n">
-        <v>44.98099349534252</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="D8" t="n">
-        <v>44.98099349534252</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="E8" t="n">
-        <v>44.98099349534252</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F8" t="n">
-        <v>37.61345462610935</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
         <v>22.60864108688619</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>889.1908336860672</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>889.1908336860672</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U8" t="n">
-        <v>889.1908336860672</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V8" t="n">
-        <v>612.1364828359636</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W8" t="n">
-        <v>612.1364828359636</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X8" t="n">
-        <v>335.0821319858601</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.02778113575653</v>
+        <v>520.6898842948577</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>471.8497508018332</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>299.0966357236504</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>151.5083290825943</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
         <v>21.9427045873282</v>
@@ -4883,22 +4883,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M9" t="n">
-        <v>680.8032373555836</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N9" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4916,19 +4916,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W9" t="n">
-        <v>844.6207376997432</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X9" t="n">
-        <v>844.6207376997432</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y9" t="n">
-        <v>638.8923019233937</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>122.096671017389</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="D10" t="n">
-        <v>122.096671017389</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="E10" t="n">
-        <v>122.096671017389</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="F10" t="n">
-        <v>122.096671017389</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2326.473577375196</v>
+        <v>621.1654256312848</v>
       </c>
       <c r="C11" t="n">
-        <v>1955.781561537881</v>
+        <v>569.7310355346019</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.57476077566</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="E11" t="n">
-        <v>1208.586845871329</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="F11" t="n">
-        <v>797.1789029616918</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="G11" t="n">
-        <v>379.3913075309111</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H11" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
@@ -5047,13 +5047,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U11" t="n">
-        <v>2326.473577375196</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V11" t="n">
-        <v>2326.473577375196</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="W11" t="n">
-        <v>2326.473577375196</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="X11" t="n">
-        <v>2326.473577375196</v>
+        <v>1011.75842740021</v>
       </c>
       <c r="Y11" t="n">
-        <v>2326.473577375196</v>
+        <v>621.1654256312848</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C12" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D12" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E12" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F12" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G12" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H12" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L12" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O12" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P12" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5153,19 +5153,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U12" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W12" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>531.9067209977148</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>362.8854036347532</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>204.6342572205938</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>66.28740115789881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5229,22 +5229,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U13" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591335</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591335</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1595.57476077566</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="C14" t="n">
-        <v>1595.57476077566</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.57476077566</v>
+        <v>1104.093708204993</v>
       </c>
       <c r="E14" t="n">
-        <v>1208.586845871329</v>
+        <v>717.1057933006618</v>
       </c>
       <c r="F14" t="n">
-        <v>797.1789029616918</v>
+        <v>305.6978503910246</v>
       </c>
       <c r="G14" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
         <v>50.71143199091319</v>
@@ -5278,13 +5278,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5305,25 +5305,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2357.774769990372</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T14" t="n">
-        <v>2357.774769990372</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U14" t="n">
-        <v>2357.774769990372</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V14" t="n">
-        <v>2357.774769990372</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="W14" t="n">
-        <v>2357.774769990372</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.167094100301</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.167094100301</v>
+        <v>1464.300508967213</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1508696139405</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L15" t="n">
-        <v>738.601607855021</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N15" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P15" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V15" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5448,40 +5448,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N16" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O16" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P16" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q16" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R16" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S16" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005868</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2114.594364319349</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
@@ -5545,22 +5545,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T17" t="n">
-        <v>2114.594364319349</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U17" t="n">
-        <v>2114.594364319349</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V17" t="n">
-        <v>2114.594364319349</v>
+        <v>2032.095562894657</v>
       </c>
       <c r="W17" t="n">
-        <v>2114.594364319349</v>
+        <v>2032.095562894657</v>
       </c>
       <c r="X17" t="n">
-        <v>2114.594364319349</v>
+        <v>1657.487887004587</v>
       </c>
       <c r="Y17" t="n">
-        <v>2114.594364319349</v>
+        <v>1266.894885235662</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E18" t="n">
-        <v>354.9574895622956</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F18" t="n">
-        <v>210.0016995789124</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G18" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H18" t="n">
-        <v>73.27740472504951</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
@@ -5600,7 +5600,7 @@
         <v>296.4476481521845</v>
       </c>
       <c r="L18" t="n">
-        <v>687.7199234768461</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M18" t="n">
         <v>1197.116407734492</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>240.7822782214491</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>240.7822782214491</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>240.7822782214491</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F19" t="n">
         <v>50.71143199091319</v>
@@ -5685,40 +5685,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N19" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O19" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P19" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R19" t="n">
-        <v>646.2135925865364</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="S19" t="n">
-        <v>431.4413288795672</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="T19" t="n">
-        <v>203.2128308914943</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="U19" t="n">
-        <v>203.2128308914943</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="V19" t="n">
-        <v>50.71143199091319</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>240.7822782214491</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>240.7822782214491</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>240.7822782214491</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1473.389663324938</v>
+        <v>1163.066539421204</v>
       </c>
       <c r="C20" t="n">
-        <v>1102.697647487622</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D20" t="n">
-        <v>742.4908467254013</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E20" t="n">
-        <v>355.5029318210705</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F20" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G20" t="n">
         <v>50.71143199091319</v>
@@ -5755,16 +5755,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535825</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2251.574998418504</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U20" t="n">
-        <v>2251.574998418504</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V20" t="n">
-        <v>2251.574998418504</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W20" t="n">
-        <v>2251.574998418504</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="X20" t="n">
-        <v>2251.574998418504</v>
+        <v>1941.251874514771</v>
       </c>
       <c r="Y20" t="n">
-        <v>1860.981996649579</v>
+        <v>1550.658872745846</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>842.907727096175</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C21" t="n">
-        <v>670.1546120179921</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D21" t="n">
-        <v>522.566305376936</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E21" t="n">
-        <v>364.9567763797908</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F21" t="n">
-        <v>220.0009863964076</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G21" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P21" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2491.697421474264</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S21" t="n">
-        <v>2333.527708683279</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T21" t="n">
-        <v>2135.853520318738</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U21" t="n">
-        <v>1908.971347729573</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V21" t="n">
-        <v>1674.720104255174</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W21" t="n">
-        <v>1422.205612588507</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X21" t="n">
-        <v>1215.678713994085</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y21" t="n">
-        <v>1009.950278217735</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="C22" t="n">
-        <v>50.71143199091319</v>
+        <v>221.5328741201256</v>
       </c>
       <c r="D22" t="n">
-        <v>50.71143199091319</v>
+        <v>221.5328741201256</v>
       </c>
       <c r="E22" t="n">
-        <v>50.71143199091319</v>
+        <v>221.5328741201256</v>
       </c>
       <c r="F22" t="n">
-        <v>50.71143199091319</v>
+        <v>73.89749895870688</v>
       </c>
       <c r="G22" t="n">
         <v>50.71143199091319</v>
@@ -5919,7 +5919,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M22" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N22" t="n">
         <v>494.2381528619504</v>
@@ -5934,28 +5934,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>240.853762363261</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>240.853762363261</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1177.787165344879</v>
+        <v>987.5186309653826</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.787165344879</v>
+        <v>987.5186309653826</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.787165344879</v>
+        <v>627.311830203162</v>
       </c>
       <c r="E23" t="n">
-        <v>790.7992504405483</v>
+        <v>627.311830203162</v>
       </c>
       <c r="F23" t="n">
-        <v>379.3913075309111</v>
+        <v>627.311830203162</v>
       </c>
       <c r="G23" t="n">
-        <v>379.3913075309111</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="H23" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K23" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2471.287047559323</v>
+        <v>2472.163380860655</v>
       </c>
       <c r="S23" t="n">
-        <v>2337.339111885122</v>
+        <v>2472.163380860655</v>
       </c>
       <c r="T23" t="n">
-        <v>2117.627062744303</v>
+        <v>2472.163380860655</v>
       </c>
       <c r="U23" t="n">
-        <v>1863.7097295096</v>
+        <v>2472.163380860655</v>
       </c>
       <c r="V23" t="n">
-        <v>1531.857990597965</v>
+        <v>2140.311641949019</v>
       </c>
       <c r="W23" t="n">
-        <v>1177.787165344879</v>
+        <v>2140.311641949019</v>
       </c>
       <c r="X23" t="n">
-        <v>1177.787165344879</v>
+        <v>1765.703966058949</v>
       </c>
       <c r="Y23" t="n">
-        <v>1177.787165344879</v>
+        <v>1375.110964290024</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C24" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D24" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1508696139405</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
@@ -6071,49 +6071,49 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9669871305373</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L24" t="n">
-        <v>573.239262455199</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M24" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O24" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S24" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T24" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U24" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V24" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X24" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>497.6393774816751</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C25" t="n">
-        <v>328.6125563390465</v>
+        <v>510.5152750165048</v>
       </c>
       <c r="D25" t="n">
-        <v>178.1018830920572</v>
+        <v>510.5152750165048</v>
       </c>
       <c r="E25" t="n">
-        <v>178.1018830920572</v>
+        <v>362.05605867994</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>214.4206835185213</v>
       </c>
       <c r="G25" t="n">
-        <v>50.71143199091319</v>
+        <v>214.4206835185213</v>
       </c>
       <c r="H25" t="n">
-        <v>50.71143199091319</v>
+        <v>56.16953710436192</v>
       </c>
       <c r="I25" t="n">
         <v>50.71143199091319</v>
@@ -6159,40 +6159,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N25" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O25" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1863.982665093863</v>
+        <v>1294.103332361435</v>
       </c>
       <c r="C26" t="n">
-        <v>1863.982665093863</v>
+        <v>1294.103332361435</v>
       </c>
       <c r="D26" t="n">
-        <v>1754.387563557128</v>
+        <v>1294.103332361435</v>
       </c>
       <c r="E26" t="n">
-        <v>1367.399648652797</v>
+        <v>907.1154174571038</v>
       </c>
       <c r="F26" t="n">
-        <v>955.9917057431599</v>
+        <v>495.7074745474666</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>77.91987911668588</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723812</v>
+        <v>77.91987911668588</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K26" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6253,25 +6253,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S26" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T26" t="n">
-        <v>2251.574998418504</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U26" t="n">
-        <v>2251.574998418504</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V26" t="n">
-        <v>2251.574998418504</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W26" t="n">
-        <v>2251.574998418504</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="X26" t="n">
-        <v>2251.574998418504</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="Y26" t="n">
-        <v>2251.574998418504</v>
+        <v>1681.695665686076</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>464.3108739090779</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C28" t="n">
-        <v>464.3108739090779</v>
+        <v>510.5152750165048</v>
       </c>
       <c r="D28" t="n">
-        <v>464.3108739090779</v>
+        <v>360.0046017695155</v>
       </c>
       <c r="E28" t="n">
-        <v>315.8516575725131</v>
+        <v>211.5453854329507</v>
       </c>
       <c r="F28" t="n">
-        <v>315.8516575725131</v>
+        <v>63.91001027153203</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8303402095514</v>
+        <v>63.91001027153203</v>
       </c>
       <c r="H28" t="n">
-        <v>50.71143199091319</v>
+        <v>63.91001027153203</v>
       </c>
       <c r="I28" t="n">
         <v>50.71143199091319</v>
@@ -6396,40 +6396,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N28" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O28" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P28" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2160.963923655589</v>
+        <v>1163.066539421204</v>
       </c>
       <c r="C29" t="n">
-        <v>1790.271907818274</v>
+        <v>1163.066539421204</v>
       </c>
       <c r="D29" t="n">
-        <v>1430.065107056053</v>
+        <v>1163.066539421204</v>
       </c>
       <c r="E29" t="n">
-        <v>1043.077192151722</v>
+        <v>776.0786245168733</v>
       </c>
       <c r="F29" t="n">
-        <v>631.6692492420848</v>
+        <v>364.6706816072361</v>
       </c>
       <c r="G29" t="n">
-        <v>213.8816538113041</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
         <v>50.71143199091319</v>
@@ -6463,13 +6463,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6493,22 +6493,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="X29" t="n">
-        <v>2160.963923655589</v>
+        <v>1941.251874514771</v>
       </c>
       <c r="Y29" t="n">
-        <v>2160.963923655589</v>
+        <v>1550.658872745846</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>73.27740472504951</v>
       </c>
       <c r="H30" t="n">
-        <v>73.27740472504951</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C31" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091319</v>
+        <v>529.0314229121441</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091319</v>
+        <v>380.5722065755792</v>
       </c>
       <c r="F31" t="n">
-        <v>50.71143199091319</v>
+        <v>232.9368314141605</v>
       </c>
       <c r="G31" t="n">
-        <v>50.71143199091319</v>
+        <v>232.9368314141605</v>
       </c>
       <c r="H31" t="n">
-        <v>50.71143199091319</v>
+        <v>74.6856850000012</v>
       </c>
       <c r="I31" t="n">
         <v>50.71143199091319</v>
@@ -6633,40 +6633,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O31" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W31" t="n">
-        <v>500.0942944152339</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X31" t="n">
-        <v>271.6696884230023</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>822.326175662771</v>
+        <v>1382.778588562023</v>
       </c>
       <c r="C32" t="n">
-        <v>822.326175662771</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="D32" t="n">
-        <v>462.1193749005504</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="E32" t="n">
-        <v>462.1193749005504</v>
+        <v>625.0986578203763</v>
       </c>
       <c r="F32" t="n">
-        <v>50.71143199091319</v>
+        <v>213.690714910739</v>
       </c>
       <c r="G32" t="n">
         <v>50.71143199091319</v>
@@ -6703,7 +6703,7 @@
         <v>154.6737472370296</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724816</v>
       </c>
       <c r="L32" t="n">
         <v>829.7261648535823</v>
@@ -6712,7 +6712,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O32" t="n">
         <v>2113.071138623965</v>
@@ -6727,25 +6727,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U32" t="n">
-        <v>1882.655886206635</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V32" t="n">
-        <v>1600.511510756337</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W32" t="n">
-        <v>1600.511510756337</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X32" t="n">
-        <v>1600.511510756337</v>
+        <v>2160.963923655589</v>
       </c>
       <c r="Y32" t="n">
-        <v>1209.918508987412</v>
+        <v>1770.370921886664</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>886.7819051675707</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C33" t="n">
-        <v>714.0287900893879</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D33" t="n">
-        <v>566.4404834483319</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E33" t="n">
-        <v>408.8309544511866</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F33" t="n">
-        <v>263.8751644678034</v>
+        <v>292.5153518805159</v>
       </c>
       <c r="G33" t="n">
-        <v>127.1508696139405</v>
+        <v>155.791057026653</v>
       </c>
       <c r="H33" t="n">
         <v>50.71143199091319</v>
@@ -6779,25 +6779,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>347.3293325303594</v>
+        <v>181.9669871305374</v>
       </c>
       <c r="L33" t="n">
-        <v>738.601607855021</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N33" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P33" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6806,25 +6806,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S33" t="n">
-        <v>2377.401886754675</v>
+        <v>2406.042074167387</v>
       </c>
       <c r="T33" t="n">
-        <v>2179.727698390133</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U33" t="n">
-        <v>1952.845525800969</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V33" t="n">
-        <v>1718.59428232657</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W33" t="n">
-        <v>1466.079790659903</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X33" t="n">
-        <v>1259.552892065481</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y33" t="n">
-        <v>1053.824456289131</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>527.1064265591986</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>358.0796054165699</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>358.0796054165699</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>358.0796054165699</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>358.0796054165699</v>
       </c>
       <c r="G34" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H34" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I34" t="n">
         <v>50.71143199091319</v>
@@ -6870,40 +6870,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O34" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U34" t="n">
-        <v>390.6311794045659</v>
+        <v>527.1064265591986</v>
       </c>
       <c r="V34" t="n">
-        <v>339.6938328872925</v>
+        <v>527.1064265591986</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>527.1064265591986</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>527.1064265591986</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>527.1064265591986</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>808.3913627325599</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C35" t="n">
-        <v>437.699346895244</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="D35" t="n">
-        <v>437.699346895244</v>
+        <v>958.2872358134659</v>
       </c>
       <c r="E35" t="n">
-        <v>50.71143199091319</v>
+        <v>571.2993209091351</v>
       </c>
       <c r="F35" t="n">
-        <v>50.71143199091319</v>
+        <v>159.8913779994978</v>
       </c>
       <c r="G35" t="n">
         <v>50.71143199091319</v>
@@ -6943,10 +6943,10 @@
         <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535817</v>
       </c>
       <c r="M35" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N35" t="n">
         <v>1735.423100897411</v>
@@ -6964,25 +6964,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2342.550985162873</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2122.838936022054</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U35" t="n">
-        <v>1868.921602787351</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V35" t="n">
-        <v>1537.069863875715</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W35" t="n">
-        <v>1182.99903862263</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X35" t="n">
-        <v>808.3913627325599</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y35" t="n">
-        <v>808.3913627325599</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C36" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D36" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E36" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F36" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964076</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
@@ -7028,40 +7028,40 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S36" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T36" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U36" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V36" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W36" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="D37" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E37" t="n">
         <v>50.71143199091319</v>
@@ -7107,40 +7107,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O37" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P37" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q37" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R37" t="n">
-        <v>529.7646791178286</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="S37" t="n">
-        <v>529.7646791178286</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="T37" t="n">
-        <v>529.7646791178286</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="U37" t="n">
-        <v>529.7646791178286</v>
+        <v>240.8537623632608</v>
       </c>
       <c r="V37" t="n">
-        <v>529.7646791178286</v>
+        <v>199.170648327478</v>
       </c>
       <c r="W37" t="n">
-        <v>529.7646791178286</v>
+        <v>199.170648327478</v>
       </c>
       <c r="X37" t="n">
-        <v>301.340073125597</v>
+        <v>199.170648327478</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.38181669350786</v>
+        <v>199.170648327478</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1955.781561537881</v>
+        <v>1219.799305642197</v>
       </c>
       <c r="C38" t="n">
-        <v>1955.781561537881</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D38" t="n">
-        <v>1595.57476077566</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E38" t="n">
-        <v>1208.586845871329</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F38" t="n">
-        <v>797.1789029616918</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G38" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
         <v>50.71143199091319</v>
@@ -7174,19 +7174,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724806</v>
+        <v>432.7629010724816</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M38" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N38" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O38" t="n">
         <v>2113.071138623965</v>
@@ -7204,22 +7204,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T38" t="n">
-        <v>2346.374563306806</v>
+        <v>2372.592316625834</v>
       </c>
       <c r="U38" t="n">
-        <v>2346.374563306806</v>
+        <v>2372.592316625834</v>
       </c>
       <c r="V38" t="n">
-        <v>2346.374563306806</v>
+        <v>2372.592316625834</v>
       </c>
       <c r="W38" t="n">
-        <v>2346.374563306806</v>
+        <v>2372.592316625834</v>
       </c>
       <c r="X38" t="n">
-        <v>2346.374563306806</v>
+        <v>1997.984640735764</v>
       </c>
       <c r="Y38" t="n">
-        <v>1955.781561537881</v>
+        <v>1607.391638966838</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>886.7819051675707</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C39" t="n">
-        <v>714.0287900893879</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D39" t="n">
-        <v>566.4404834483319</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E39" t="n">
-        <v>408.8309544511866</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F39" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G39" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H39" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
         <v>1620.913172155677</v>
@@ -7277,28 +7277,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2377.401886754675</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T39" t="n">
-        <v>2179.727698390133</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U39" t="n">
-        <v>1952.845525800969</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V39" t="n">
-        <v>1718.59428232657</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W39" t="n">
-        <v>1466.079790659903</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X39" t="n">
-        <v>1259.552892065481</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y39" t="n">
-        <v>1053.824456289131</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1906.740935377439</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="C40" t="n">
-        <v>1906.740935377439</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="D40" t="n">
-        <v>1906.740935377439</v>
+        <v>515.8273408518584</v>
       </c>
       <c r="E40" t="n">
-        <v>1906.740935377439</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.740935377439</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K40" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L40" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M40" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O40" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U40" t="n">
-        <v>2535.571599545659</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="V40" t="n">
-        <v>2280.080335841681</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="W40" t="n">
-        <v>1991.097934945301</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="X40" t="n">
-        <v>1906.740935377439</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="Y40" t="n">
-        <v>1906.740935377439</v>
+        <v>666.3380140988477</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1915.065634465559</v>
+        <v>1727.606449415018</v>
       </c>
       <c r="C41" t="n">
-        <v>1544.373618628243</v>
+        <v>1727.606449415018</v>
       </c>
       <c r="D41" t="n">
-        <v>1184.166817866023</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="E41" t="n">
-        <v>797.1789029616918</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F41" t="n">
-        <v>797.1789029616918</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G41" t="n">
-        <v>379.3913075309111</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H41" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I41" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7435,28 +7435,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S41" t="n">
-        <v>2305.658636234484</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T41" t="n">
-        <v>2305.658636234484</v>
+        <v>2335.594607902806</v>
       </c>
       <c r="U41" t="n">
-        <v>2305.658636234484</v>
+        <v>2081.677274668103</v>
       </c>
       <c r="V41" t="n">
-        <v>2305.658636234484</v>
+        <v>2081.677274668103</v>
       </c>
       <c r="W41" t="n">
-        <v>2305.658636234484</v>
+        <v>1727.606449415018</v>
       </c>
       <c r="X41" t="n">
-        <v>2305.658636234484</v>
+        <v>1727.606449415018</v>
       </c>
       <c r="Y41" t="n">
-        <v>1915.065634465559</v>
+        <v>1727.606449415018</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C42" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E42" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F42" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G42" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
@@ -7499,16 +7499,16 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
@@ -7523,19 +7523,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="F43" t="n">
         <v>50.71143199091319</v>
@@ -7608,13 +7608,13 @@
         <v>424.0508324551545</v>
       </c>
       <c r="W43" t="n">
-        <v>135.0684315587752</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1137.071238272558</v>
+        <v>983.7802084577011</v>
       </c>
       <c r="C44" t="n">
-        <v>766.3792224352419</v>
+        <v>613.0881926203853</v>
       </c>
       <c r="D44" t="n">
-        <v>766.3792224352419</v>
+        <v>252.8813918581646</v>
       </c>
       <c r="E44" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F44" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G44" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H44" t="n">
         <v>50.71143199091319</v>
@@ -7648,13 +7648,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S44" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T44" t="n">
-        <v>2289.864249256194</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U44" t="n">
-        <v>2289.864249256194</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V44" t="n">
-        <v>2289.864249256194</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.864249256194</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.256573366124</v>
+        <v>1761.965543551268</v>
       </c>
       <c r="Y44" t="n">
-        <v>1524.663571597199</v>
+        <v>1371.372541782343</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
@@ -7736,7 +7736,7 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
         <v>1620.913172155677</v>
@@ -7751,28 +7751,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R46" t="n">
-        <v>662.733511048917</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>447.9612473419478</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7327493538749</v>
+        <v>508.7151502502542</v>
       </c>
       <c r="U46" t="n">
-        <v>219.7327493538749</v>
+        <v>508.7151502502542</v>
       </c>
       <c r="V46" t="n">
-        <v>219.7327493538749</v>
+        <v>508.7151502502542</v>
       </c>
       <c r="W46" t="n">
         <v>219.7327493538749</v>
@@ -7990,7 +7990,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>454.8408013884635</v>
+        <v>454.8408013884634</v>
       </c>
       <c r="O2" t="n">
         <v>396.0321885132552</v>
@@ -8066,10 +8066,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>272.7740099466066</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8294,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
@@ -8306,7 +8306,7 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>328.0172679079435</v>
+        <v>320.5492771539184</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8531,25 +8531,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>221.1367956094978</v>
       </c>
       <c r="N9" t="n">
-        <v>278.010061234286</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8777,7 +8777,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>484.3332662999999</v>
+        <v>298.290893622267</v>
       </c>
       <c r="N12" t="n">
         <v>498.5160693172957</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.44770712425047</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9719,7 +9719,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K24" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9965,16 +9965,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534893</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10676,16 +10676,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11068,7 +11068,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M41" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325457</v>
       </c>
       <c r="N41" t="n">
         <v>454.8408013884635</v>
@@ -11147,10 +11147,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>465.3235657432995</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11384,10 +11384,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>298.290893622267</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23260,25 +23260,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>316.0650494832265</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.37111795359735</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>33.93376427960204</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.0218075870219</v>
@@ -23478,13 +23478,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>108.2451062368378</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>161.1731652603626</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
         <v>157.2246747536534</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.11631286060603</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>91.92161561464245</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>53.37918862949117</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23737,7 +23737,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>41.88263989570393</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>288.7420480077788</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>91.92161561464249</v>
       </c>
       <c r="H18" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>41.22751706926217</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>104.9635078147731</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3311041893321</v>
@@ -23913,7 +23913,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>101.9599661553639</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>86.65712227996835</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>105.5502786486851</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>325.3930767845979</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
@@ -24034,7 +24034,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.899293949320331</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24138,10 +24138,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>144.3768978912163</v>
       </c>
       <c r="H22" t="n">
         <v>156.6686349500177</v>
@@ -24150,7 +24150,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>49.35397375491781</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
@@ -24183,13 +24183,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>97.85166981879124</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.8675699683183922</v>
       </c>
       <c r="S23" t="n">
-        <v>44.88501133640875</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>91.92161561464245</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.04247481967191</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>131.5598634397538</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>248.1055822332307</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>130.2883120991384</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
-        <v>61.51091581356593</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I28" t="n">
-        <v>136.9633875020681</v>
+        <v>123.8967950042554</v>
       </c>
       <c r="J28" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
         <v>148.2796428708918</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>102.7900623563132</v>
       </c>
       <c r="H29" t="n">
-        <v>163.8545571824109</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
         <v>157.2246747536534</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S29" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I30" t="n">
-        <v>41.22751706926217</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24843,25 +24843,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>136.9633875020681</v>
+        <v>113.2288770230709</v>
       </c>
       <c r="J31" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>108.4392531609549</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>252.2602293858453</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>49.21028982672482</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>28.3537855385853</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605712</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>28.35378553858567</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -25089,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>135.1104946830864</v>
       </c>
       <c r="V34" t="n">
-        <v>202.5083780148385</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>305.5215729279741</v>
       </c>
       <c r="H35" t="n">
         <v>325.3930767845979</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.04476588138202</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>28.35378553858531</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.7100106351151</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25320,7 +25320,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25335,7 +25335,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>211.6700681715141</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
         <v>157.2246747536534</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>30.20986277294531</v>
+        <v>56.16543855878294</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
@@ -25456,7 +25456,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>28.35378553858524</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -25572,7 +25572,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0218075870219</v>
+        <v>272.9497663473391</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>142.6269303601257</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25630,16 +25630,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>13.52134044227751</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>19.53770692298554</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>2.693374882514831</v>
       </c>
       <c r="G43" t="n">
         <v>167.3311041893321</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6269303601258</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>182.9697754867085</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -25882,7 +25882,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.3998259831812</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3781599023558</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6391436117775</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>56.82753655840162</v>
       </c>
       <c r="U46" t="n">
         <v>286.0218075870219</v>
@@ -26085,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>667587.0953743816</v>
+        <v>667587.0953743818</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>667587.0953743815</v>
+        <v>667587.0953743818</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>667587.0953743818</v>
+        <v>667587.0953743816</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>667587.0953743816</v>
+        <v>667587.0953743818</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>667587.0953743815</v>
+        <v>667587.0953743816</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>667587.0953743818</v>
+        <v>667587.0953743816</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667587.0953743818</v>
+        <v>667587.0953743816</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667587.0953743815</v>
+        <v>667587.0953743816</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667587.0953743816</v>
+        <v>667587.0953743818</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667587.0953743818</v>
+        <v>667587.0953743816</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>667587.0953743815</v>
+        <v>667587.0953743818</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>488351.6451689617</v>
       </c>
       <c r="C2" t="n">
-        <v>488351.6451689617</v>
+        <v>488351.6451689618</v>
       </c>
       <c r="D2" t="n">
-        <v>488351.6451689617</v>
+        <v>488351.6451689618</v>
       </c>
       <c r="E2" t="n">
-        <v>329217.5724393259</v>
+        <v>329217.5724393258</v>
       </c>
       <c r="F2" t="n">
         <v>329217.5724393259</v>
@@ -26331,28 +26331,28 @@
         <v>329217.5724393259</v>
       </c>
       <c r="H2" t="n">
-        <v>329217.5724393259</v>
+        <v>329217.5724393256</v>
       </c>
       <c r="I2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="J2" t="n">
-        <v>329217.5724393258</v>
+        <v>329217.5724393257</v>
       </c>
       <c r="K2" t="n">
-        <v>329217.572439326</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="L2" t="n">
-        <v>329217.572439326</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="M2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="N2" t="n">
+        <v>329217.5724393259</v>
+      </c>
+      <c r="O2" t="n">
         <v>329217.5724393257</v>
-      </c>
-      <c r="O2" t="n">
-        <v>329217.5724393259</v>
       </c>
       <c r="P2" t="n">
         <v>329217.5724393259</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853752</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301983.934015274</v>
+        <v>301983.9340152739</v>
       </c>
       <c r="C4" t="n">
         <v>301983.9340152739</v>
       </c>
       <c r="D4" t="n">
-        <v>301983.9340152739</v>
+        <v>301983.934015274</v>
       </c>
       <c r="E4" t="n">
         <v>37068.93740564659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44144.84329957847</v>
+        <v>44144.84329957845</v>
       </c>
       <c r="C6" t="n">
-        <v>136063.6556673183</v>
+        <v>136063.6556673185</v>
       </c>
       <c r="D6" t="n">
         <v>136063.6556673184</v>
       </c>
       <c r="E6" t="n">
-        <v>-109333.0559686757</v>
+        <v>-115963.6423324106</v>
       </c>
       <c r="F6" t="n">
-        <v>246856.3739180045</v>
+        <v>240225.7875542696</v>
       </c>
       <c r="G6" t="n">
-        <v>246856.3739180045</v>
+        <v>240225.7875542696</v>
       </c>
       <c r="H6" t="n">
-        <v>246856.3739180045</v>
+        <v>240225.7875542694</v>
       </c>
       <c r="I6" t="n">
-        <v>246856.3739180045</v>
+        <v>240225.7875542697</v>
       </c>
       <c r="J6" t="n">
-        <v>175091.6614299182</v>
+        <v>168461.0750661832</v>
       </c>
       <c r="K6" t="n">
-        <v>246856.3739180046</v>
+        <v>240225.7875542697</v>
       </c>
       <c r="L6" t="n">
-        <v>246856.3739180046</v>
+        <v>240225.7875542696</v>
       </c>
       <c r="M6" t="n">
-        <v>157240.349619467</v>
+        <v>150609.7632557321</v>
       </c>
       <c r="N6" t="n">
-        <v>246856.3739180043</v>
+        <v>240225.7875542696</v>
       </c>
       <c r="O6" t="n">
-        <v>246856.3739180045</v>
+        <v>240225.7875542695</v>
       </c>
       <c r="P6" t="n">
-        <v>246856.3739180045</v>
+        <v>240225.7875542697</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>309.705174430311</v>
       </c>
       <c r="H3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="I3" t="n">
         <v>309.705174430311</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448128</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>163.6774871331759</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>179.8853178296092</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,10 +27399,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5.376704537311952</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>131.6722319569599</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -27523,10 +27523,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27548,10 +27548,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>3.750872006333083</v>
       </c>
       <c r="H4" t="n">
         <v>161.6340720089168</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>195.5783607597038</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27618,10 +27618,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>338.5733666556866</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>109.0591832075437</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
@@ -27715,7 +27715,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>68.28398494698197</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.498842445182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,10 +27782,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
-        <v>146.9746241731992</v>
+        <v>128.9949286592287</v>
       </c>
       <c r="F7" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.8895889301081</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.8000902273852</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27861,7 +27861,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>117.3905417318914</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>27.76346545686042</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -27988,16 +27988,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C10" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>149.0055665145194</v>
@@ -28025,7 +28025,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>68.73716216434788</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
@@ -28037,7 +28037,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>3.197836007427327</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -31995,13 +31995,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K14" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L14" t="n">
         <v>196.477585181553</v>
@@ -32010,7 +32010,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N14" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O14" t="n">
         <v>209.776231993146</v>
@@ -32022,16 +32022,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S14" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I15" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M15" t="n">
         <v>168.7893200645195</v>
@@ -32092,16 +32092,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O15" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P15" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S15" t="n">
         <v>12.37359824256949</v>
@@ -32110,7 +32110,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H16" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J16" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L16" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P16" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R16" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T16" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,13 +32232,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K17" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L17" t="n">
         <v>196.477585181553</v>
@@ -32247,7 +32247,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N17" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O17" t="n">
         <v>209.776231993146</v>
@@ -32259,16 +32259,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S17" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I18" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K18" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M18" t="n">
         <v>168.7893200645195</v>
@@ -32329,16 +32329,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O18" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P18" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S18" t="n">
         <v>12.37359824256949</v>
@@ -32347,7 +32347,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H19" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I19" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J19" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L19" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M19" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P19" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R19" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T19" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H20" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
@@ -32478,10 +32478,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M20" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N20" t="n">
         <v>222.1566574333125</v>
@@ -32490,22 +32490,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P20" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S20" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I21" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K21" t="n">
         <v>107.5699566698185</v>
@@ -32563,7 +32563,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N21" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O21" t="n">
         <v>158.4960056351046</v>
@@ -32572,19 +32572,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S21" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T21" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H22" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
@@ -32633,37 +32633,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L22" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M22" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P22" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R22" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T22" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I23" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J23" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K23" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L23" t="n">
         <v>196.477585181553</v>
@@ -32721,7 +32721,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N23" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O23" t="n">
         <v>209.776231993146</v>
@@ -32733,16 +32733,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R23" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S23" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T23" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H24" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I24" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J24" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K24" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M24" t="n">
         <v>168.7893200645195</v>
@@ -32803,16 +32803,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P24" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R24" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S24" t="n">
         <v>12.37359824256949</v>
@@ -32821,7 +32821,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H25" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I25" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J25" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K25" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L25" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M25" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N25" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O25" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P25" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R25" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S25" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T25" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,13 +32943,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I26" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J26" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K26" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L26" t="n">
         <v>196.477585181553</v>
@@ -32958,7 +32958,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N26" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O26" t="n">
         <v>209.776231993146</v>
@@ -32970,16 +32970,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R26" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S26" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T26" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H27" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I27" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J27" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K27" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M27" t="n">
         <v>168.7893200645195</v>
@@ -33040,16 +33040,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O27" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P27" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R27" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S27" t="n">
         <v>12.37359824256949</v>
@@ -33058,7 +33058,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H28" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I28" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J28" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K28" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L28" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M28" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N28" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P28" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R28" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S28" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T28" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I29" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J29" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K29" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L29" t="n">
         <v>196.477585181553</v>
@@ -33195,7 +33195,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N29" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O29" t="n">
         <v>209.776231993146</v>
@@ -33207,16 +33207,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R29" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S29" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T29" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H30" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I30" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J30" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K30" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M30" t="n">
         <v>168.7893200645195</v>
@@ -33277,16 +33277,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P30" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R30" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S30" t="n">
         <v>12.37359824256949</v>
@@ -33295,7 +33295,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H31" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I31" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J31" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K31" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L31" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M31" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N31" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P31" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R31" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S31" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T31" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I32" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J32" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K32" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L32" t="n">
         <v>196.477585181553</v>
@@ -33432,7 +33432,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N32" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O32" t="n">
         <v>209.776231993146</v>
@@ -33444,16 +33444,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R32" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S32" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T32" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H33" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I33" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J33" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K33" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M33" t="n">
         <v>168.7893200645195</v>
@@ -33514,16 +33514,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O33" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P33" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R33" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S33" t="n">
         <v>12.37359824256949</v>
@@ -33532,7 +33532,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H34" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I34" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J34" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K34" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L34" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M34" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N34" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P34" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R34" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S34" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T34" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I35" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J35" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K35" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L35" t="n">
         <v>196.477585181553</v>
@@ -33669,7 +33669,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N35" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O35" t="n">
         <v>209.776231993146</v>
@@ -33681,16 +33681,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R35" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S35" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T35" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H36" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I36" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J36" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K36" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M36" t="n">
         <v>168.7893200645195</v>
@@ -33751,16 +33751,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P36" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R36" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S36" t="n">
         <v>12.37359824256949</v>
@@ -33769,7 +33769,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H37" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I37" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J37" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K37" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L37" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M37" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N37" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O37" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P37" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R37" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S37" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T37" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,13 +33891,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I38" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J38" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K38" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L38" t="n">
         <v>196.477585181553</v>
@@ -33906,7 +33906,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N38" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O38" t="n">
         <v>209.776231993146</v>
@@ -33918,16 +33918,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R38" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S38" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T38" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H39" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I39" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J39" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K39" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M39" t="n">
         <v>168.7893200645195</v>
@@ -33988,16 +33988,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O39" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P39" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R39" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S39" t="n">
         <v>12.37359824256949</v>
@@ -34006,7 +34006,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H40" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I40" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J40" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K40" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L40" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M40" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N40" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O40" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P40" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R40" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S40" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T40" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>134.1933268726387</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
@@ -35026,7 +35026,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>199.9590986266935</v>
+        <v>192.4911078726684</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
+        <v>82.55611253552989</v>
+      </c>
+      <c r="N9" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N9" t="n">
-        <v>149.951891953036</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
@@ -35497,7 +35497,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128187</v>
       </c>
       <c r="N12" t="n">
         <v>543.714571154376</v>
@@ -35509,7 +35509,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
@@ -35743,10 +35743,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q18" t="n">
         <v>51.39564078603548</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M20" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N20" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O20" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P20" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M21" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L24" t="n">
         <v>395.2245205299612</v>
@@ -36454,10 +36454,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L25" t="n">
         <v>120.492579780375</v>
@@ -36533,7 +36533,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P25" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
-        <v>308.7735493767197</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L28" t="n">
         <v>120.492579780375</v>
@@ -36770,7 +36770,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P28" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36922,16 +36922,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L31" t="n">
         <v>120.492579780375</v>
@@ -37007,7 +37007,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P31" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516742</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
@@ -37165,10 +37165,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L34" t="n">
         <v>120.492579780375</v>
@@ -37244,7 +37244,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P34" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>308.7735493767197</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L37" t="n">
         <v>120.492579780375</v>
@@ -37481,7 +37481,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P37" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L39" t="n">
         <v>395.2245205299612</v>
@@ -37633,13 +37633,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q39" t="n">
         <v>167.0326721210326</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L40" t="n">
         <v>120.492579780375</v>
@@ -37718,7 +37718,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P40" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M41" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281612</v>
       </c>
       <c r="N41" t="n">
         <v>453.3197218150998</v>
@@ -37867,10 +37867,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
-        <v>495.5322027338511</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M45" t="n">
-        <v>328.4995306128187</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
